--- a/NH Q11 - Q4 - PV/NH - 2018.xlsx
+++ b/NH Q11 - Q4 - PV/NH - 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2505" windowWidth="21840" windowHeight="7575"/>
+    <workbookView xWindow="480" yWindow="2505" windowWidth="21840" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="01-18" sheetId="30" r:id="rId1"/>
@@ -15,14 +15,13 @@
     <definedName name="_Fill" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01-18'!$A$3:$S$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'VPBANK - 2018'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="79">
   <si>
     <t>USD</t>
   </si>
@@ -195,9 +194,6 @@
     <t>TIỀN LÃI 6T</t>
   </si>
   <si>
-    <t>Tháng 11/2017:</t>
-  </si>
-  <si>
     <t>LD1731061035</t>
   </si>
   <si>
@@ -210,18 +206,6 @@
     <t>LD1733800695</t>
   </si>
   <si>
-    <t>7/12</t>
-  </si>
-  <si>
-    <t>16/12</t>
-  </si>
-  <si>
-    <t>TIỀN LÃI USD</t>
-  </si>
-  <si>
-    <t>TIỀN LÃI VNĐ</t>
-  </si>
-  <si>
     <t>TIỀN VAY</t>
   </si>
   <si>
@@ -246,9 +230,6 @@
     <t>CHI TIẾT THÁNG</t>
   </si>
   <si>
-    <t>TIỀN VAY:</t>
-  </si>
-  <si>
     <t>NGÀY TRẢ : 26 HÀNG THÁNG</t>
   </si>
   <si>
@@ -271,6 +252,12 @@
   </si>
   <si>
     <t>1402LDS201800234</t>
+  </si>
+  <si>
+    <t>số tháng</t>
+  </si>
+  <si>
+    <t>Tháng 03/2018:</t>
   </si>
 </sst>
 </file>
@@ -778,7 +765,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1038,30 +1025,18 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="34" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1074,12 +1049,6 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1089,12 +1058,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1110,6 +1073,15 @@
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,39 +1106,36 @@
     <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1178,6 +1147,9 @@
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="38">
@@ -1527,7 +1499,7 @@
   </sheetPr>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2:B3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
@@ -1583,47 +1555,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="122" t="s">
+      <c r="D2" s="116"/>
+      <c r="E2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="123" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="124" t="s">
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="124"/>
-      <c r="M2" s="117" t="s">
+      <c r="L2" s="119"/>
+      <c r="M2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="118" t="s">
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="119" t="s">
+      <c r="S2" s="114" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="13" t="s">
         <v>11</v>
       </c>
@@ -1642,35 +1614,35 @@
       <c r="H3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="116" t="s">
+      <c r="J3" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="105" t="s">
         <v>13</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="114" t="s">
+      <c r="M3" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="114" t="s">
+      <c r="N3" s="106" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="115" t="s">
+      <c r="P3" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="115" t="s">
+      <c r="Q3" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="118"/>
-      <c r="S3" s="119"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="114"/>
     </row>
     <row r="4" spans="1:20" s="22" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="33">
@@ -1678,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C4" s="24">
         <v>43105</v>
@@ -1725,7 +1697,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C5" s="40">
         <v>43115</v>
@@ -1772,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6" s="40">
         <v>43130</v>
@@ -2010,7 +1982,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="40">
         <v>43046</v>
@@ -2058,7 +2030,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="40">
         <v>43053</v>
@@ -2105,7 +2077,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="40">
         <v>43067</v>
@@ -2153,7 +2125,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="24">
         <v>43073</v>
@@ -2201,7 +2173,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C15" s="24">
         <v>43082</v>
@@ -2248,7 +2220,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C16" s="40">
         <v>43091</v>
@@ -2311,10 +2283,10 @@
       <c r="S17" s="38"/>
     </row>
     <row r="18" spans="1:19" s="46" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="120"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="30">
@@ -3142,7 +3114,7 @@
         <v>14</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C33" s="48">
         <v>43130</v>
@@ -3213,10 +3185,10 @@
       <c r="S34" s="28"/>
     </row>
     <row r="35" spans="1:19" s="46" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="120"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
       <c r="E35" s="30">
@@ -3330,10 +3302,10 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="20.25" customHeight="1"/>
@@ -3341,184 +3313,176 @@
     <col min="1" max="1" width="4.7109375" style="72" customWidth="1"/>
     <col min="2" max="3" width="9.7109375" style="70" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="70" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="70" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="70" customWidth="1"/>
     <col min="7" max="8" width="9.5703125" style="70" customWidth="1"/>
     <col min="9" max="9" width="8.140625" style="70" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="70" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="70" customWidth="1"/>
-    <col min="12" max="12" width="14" style="70" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="70" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="70" customWidth="1"/>
-    <col min="15" max="17" width="12.5703125" style="70" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="9.42578125" style="70" customWidth="1"/>
-    <col min="20" max="20" width="7.7109375" style="70" customWidth="1"/>
-    <col min="21" max="21" width="11" style="70" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="70" customWidth="1"/>
-    <col min="23" max="23" width="10" style="70" customWidth="1"/>
-    <col min="24" max="24" width="9.5703125" style="70" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="70" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" style="70" customWidth="1"/>
-    <col min="27" max="16384" width="17.140625" style="70"/>
+    <col min="11" max="11" width="14" style="70" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="70" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" style="70" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" style="70" customWidth="1"/>
+    <col min="15" max="16" width="9.42578125" style="70" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="70" customWidth="1"/>
+    <col min="18" max="18" width="7" style="70" customWidth="1"/>
+    <col min="19" max="19" width="11" style="70" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="70" customWidth="1"/>
+    <col min="21" max="21" width="10" style="70" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" style="70" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="70" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" style="70" customWidth="1"/>
+    <col min="25" max="16384" width="17.140625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.25" hidden="1" customHeight="1">
+    <row r="1" spans="1:24" ht="20.25" customHeight="1">
       <c r="A1" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="109" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="109" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="75" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="A2" s="127" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="103" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="103" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="75" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A2" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130" t="s">
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130" t="s">
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="131" t="s">
+      <c r="O2" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="125" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="75" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A3" s="123"/>
+      <c r="B3" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="126" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="126" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="126" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="125"/>
+      <c r="O3" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="126" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="126" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="130" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="75" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="132"/>
-      <c r="L3" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="130"/>
-      <c r="R3" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="125" t="s">
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="125"/>
+    </row>
+    <row r="4" spans="1:24" s="95" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A4" s="124"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="125"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" s="137" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" s="138"/>
-      <c r="X3" s="138"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="130"/>
-    </row>
-    <row r="4" spans="1:26" s="97" customFormat="1" ht="34.5" hidden="1" customHeight="1">
-      <c r="A4" s="129"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="95" t="s">
+      <c r="W4" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="95" t="s">
-        <v>69</v>
-      </c>
-      <c r="W4" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="95" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y4" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z4" s="130"/>
-    </row>
-    <row r="5" spans="1:26" ht="20.25" hidden="1" customHeight="1">
+      <c r="X4" s="125"/>
+    </row>
+    <row r="5" spans="1:24" ht="20.25" customHeight="1">
       <c r="A5" s="73">
         <v>1</v>
       </c>
       <c r="B5" s="84">
-        <v>42968</v>
+        <v>43157</v>
       </c>
       <c r="C5" s="84">
-        <v>43157</v>
+        <v>43338</v>
       </c>
       <c r="D5" s="87">
         <v>8.7499999999999994E-2</v>
@@ -3531,75 +3495,70 @@
         <v>9830000000</v>
       </c>
       <c r="G5" s="84">
-        <v>42970</v>
+        <v>43076</v>
       </c>
       <c r="H5" s="84">
-        <v>43154</v>
+        <v>43227</v>
       </c>
       <c r="I5" s="87">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J5" s="98">
-        <f>L5*I5/2</f>
-        <v>7631.28</v>
-      </c>
-      <c r="K5" s="91">
-        <f>J5*22720</f>
-        <v>173382681.59999999</v>
-      </c>
-      <c r="L5" s="78">
-        <v>423960</v>
-      </c>
-      <c r="M5" s="81">
-        <f>L5*22728</f>
-        <v>9635762880</v>
-      </c>
-      <c r="N5" s="71" t="s">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J5" s="96">
+        <f>K5*I5/12</f>
+        <v>1683.1733333333334</v>
+      </c>
+      <c r="K5" s="78">
+        <v>721360</v>
+      </c>
+      <c r="L5" s="81">
+        <f>K5*22728</f>
+        <v>16395070080</v>
+      </c>
+      <c r="M5" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="O5" s="93">
-        <f>423960</f>
-        <v>423960</v>
-      </c>
-      <c r="P5" s="93"/>
-      <c r="R5" s="84">
+      <c r="O5" s="84">
         <v>42912</v>
       </c>
-      <c r="S5" s="84">
+      <c r="P5" s="84">
         <v>43277</v>
       </c>
-      <c r="T5" s="87">
+      <c r="Q5" s="87">
         <v>9.1999999999999998E-2</v>
       </c>
+      <c r="R5" s="111">
+        <f ca="1">DATEDIF(O5,TODAY(),"M")</f>
+        <v>9</v>
+      </c>
+      <c r="S5" s="78">
+        <v>44000</v>
+      </c>
+      <c r="T5" s="78">
+        <f ca="1">S5-U5*R5</f>
+        <v>10700</v>
+      </c>
       <c r="U5" s="78">
-        <v>44000</v>
+        <v>3700</v>
       </c>
       <c r="V5" s="78">
-        <f ca="1">U5-(MONTH(TODAY())-MONTH(R5)-1)*W5</f>
-        <v>58800</v>
+        <f ca="1">T5*Q5/365*30</f>
+        <v>80.909589041095899</v>
       </c>
       <c r="W5" s="78">
-        <v>3700</v>
-      </c>
-      <c r="X5" s="78">
-        <f ca="1">V5*T5/365*30</f>
-        <v>444.62465753424652</v>
-      </c>
-      <c r="Y5" s="78">
-        <f ca="1">U5-(MONTH(TODAY())-MONTH(R5))*W5</f>
-        <v>55100</v>
-      </c>
-      <c r="Z5" s="71"/>
-    </row>
-    <row r="6" spans="1:26" ht="20.25" hidden="1" customHeight="1">
+        <f ca="1">T5-U5</f>
+        <v>7000</v>
+      </c>
+      <c r="X5" s="71"/>
+    </row>
+    <row r="6" spans="1:24" ht="20.25" customHeight="1">
       <c r="A6" s="74">
         <v>2</v>
       </c>
       <c r="B6" s="85">
-        <v>42978</v>
+        <v>43159</v>
       </c>
       <c r="C6" s="85">
-        <v>43159</v>
+        <v>43340</v>
       </c>
       <c r="D6" s="87">
         <v>8.7499999999999994E-2</v>
@@ -3612,77 +3571,70 @@
         <v>9700000000</v>
       </c>
       <c r="G6" s="85">
-        <v>42983</v>
+        <v>43085</v>
       </c>
       <c r="H6" s="85">
-        <v>43136</v>
+        <v>43236</v>
       </c>
       <c r="I6" s="88">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J6" s="98">
-        <f t="shared" ref="J6:J10" si="1">L6*I6/2</f>
-        <v>6456.5249999999996</v>
-      </c>
-      <c r="K6" s="91">
-        <f t="shared" ref="K6:K10" si="2">J6*22720</f>
-        <v>146692248</v>
-      </c>
-      <c r="L6" s="79">
-        <v>416550</v>
-      </c>
-      <c r="M6" s="82">
-        <f>L6*22727</f>
-        <v>9466931850</v>
-      </c>
-      <c r="N6" s="71" t="s">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J6" s="96">
+        <f>K6*I6/12</f>
+        <v>1083.1333333333334</v>
+      </c>
+      <c r="K6" s="79">
+        <v>464200</v>
+      </c>
+      <c r="L6" s="82">
+        <f>K6*22727</f>
+        <v>10549873400</v>
+      </c>
+      <c r="M6" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="93">
-        <f>279400+18000</f>
-        <v>297400</v>
-      </c>
-      <c r="P6" s="93">
-        <v>119150</v>
-      </c>
-      <c r="R6" s="84">
+      <c r="O6" s="84">
         <v>43007</v>
       </c>
-      <c r="S6" s="84">
+      <c r="P6" s="84">
         <v>43372</v>
       </c>
-      <c r="T6" s="88">
+      <c r="Q6" s="88">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="U6" s="78">
+      <c r="R6" s="111">
+        <f t="shared" ref="R6:R8" ca="1" si="1">DATEDIF(O6,TODAY(),"M")</f>
+        <v>6</v>
+      </c>
+      <c r="S6" s="78">
         <v>98840</v>
       </c>
+      <c r="T6" s="78">
+        <f t="shared" ref="T6:T8" ca="1" si="2">S6-U6*R6</f>
+        <v>49400</v>
+      </c>
+      <c r="U6" s="79">
+        <v>8240</v>
+      </c>
       <c r="V6" s="78">
-        <f t="shared" ref="V6:V11" ca="1" si="3">U6-(MONTH(TODAY())-MONTH(R6)-1)*W6</f>
-        <v>156520</v>
-      </c>
-      <c r="W6" s="79">
-        <v>8240</v>
-      </c>
-      <c r="X6" s="78">
-        <f t="shared" ref="X6:X11" ca="1" si="4">V6*T6/365*30</f>
-        <v>1247.8717808219178</v>
-      </c>
-      <c r="Y6" s="78">
-        <f t="shared" ref="Y6:Y11" ca="1" si="5">U6-(MONTH(TODAY())-MONTH(R6))*W6</f>
-        <v>148280</v>
-      </c>
-      <c r="Z6" s="71"/>
-    </row>
-    <row r="7" spans="1:26" ht="20.25" hidden="1" customHeight="1">
+        <f t="shared" ref="V6:V11" ca="1" si="3">T6*Q6/365*30</f>
+        <v>393.84657534246577</v>
+      </c>
+      <c r="W6" s="78">
+        <f t="shared" ref="W6:W8" ca="1" si="4">T6-U6</f>
+        <v>41160</v>
+      </c>
+      <c r="X6" s="71"/>
+    </row>
+    <row r="7" spans="1:24" ht="20.25" customHeight="1">
       <c r="A7" s="74">
         <v>3</v>
       </c>
       <c r="B7" s="85">
-        <v>42989</v>
+        <v>43171</v>
       </c>
       <c r="C7" s="85">
-        <v>43171</v>
+        <v>43324</v>
       </c>
       <c r="D7" s="87">
         <v>8.7499999999999994E-2</v>
@@ -3695,67 +3647,62 @@
         <v>10070000000</v>
       </c>
       <c r="G7" s="85">
-        <v>42991</v>
+        <v>43090</v>
       </c>
       <c r="H7" s="85">
-        <v>43144</v>
+        <v>43241</v>
       </c>
       <c r="I7" s="88">
-        <v>3.1E-2</v>
-      </c>
-      <c r="J7" s="98">
-        <f t="shared" si="1"/>
-        <v>6717.7</v>
-      </c>
-      <c r="K7" s="91">
-        <f t="shared" si="2"/>
-        <v>152626144</v>
-      </c>
-      <c r="L7" s="79">
-        <v>433400</v>
-      </c>
-      <c r="M7" s="82">
-        <f>L7*22726</f>
-        <v>9849448400</v>
-      </c>
-      <c r="N7" s="71" t="s">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J7" s="96">
+        <f>K7*I7/12</f>
+        <v>206.15</v>
+      </c>
+      <c r="K7" s="79">
+        <v>88350</v>
+      </c>
+      <c r="L7" s="82">
+        <f>K7*22726</f>
+        <v>2007842100</v>
+      </c>
+      <c r="M7" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93">
-        <f>345050</f>
-        <v>345050</v>
-      </c>
-      <c r="R7" s="84">
-        <v>43069</v>
-      </c>
-      <c r="S7" s="84">
+      <c r="O7" s="84">
+        <v>43038</v>
+      </c>
+      <c r="P7" s="84">
         <v>43434</v>
       </c>
-      <c r="T7" s="88">
+      <c r="Q7" s="88">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="U7" s="78">
+      <c r="R7" s="111">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S7" s="78">
         <v>23890</v>
+      </c>
+      <c r="T7" s="78">
+        <f t="shared" ca="1" si="2"/>
+        <v>15890</v>
+      </c>
+      <c r="U7" s="79">
+        <v>2000</v>
       </c>
       <c r="V7" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>41890</v>
-      </c>
-      <c r="W7" s="79">
-        <v>2000</v>
-      </c>
-      <c r="X7" s="78">
+        <v>126.68465753424658</v>
+      </c>
+      <c r="W7" s="78">
         <f t="shared" ca="1" si="4"/>
-        <v>333.97232876712332</v>
-      </c>
-      <c r="Y7" s="78">
-        <f t="shared" ca="1" si="5"/>
-        <v>39890</v>
-      </c>
-      <c r="Z7" s="71"/>
-    </row>
-    <row r="8" spans="1:26" ht="20.25" hidden="1" customHeight="1">
+        <v>13890</v>
+      </c>
+      <c r="X7" s="71"/>
+    </row>
+    <row r="8" spans="1:24" ht="20.25" customHeight="1">
       <c r="A8" s="74">
         <v>4</v>
       </c>
@@ -3775,818 +3722,471 @@
         <v>11580000000</v>
       </c>
       <c r="G8" s="85">
-        <v>43055</v>
+        <v>43182</v>
       </c>
       <c r="H8" s="85">
-        <v>43206</v>
+        <v>43335</v>
       </c>
       <c r="I8" s="88">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J8" s="98">
-        <f t="shared" si="1"/>
-        <v>7481.6</v>
-      </c>
-      <c r="K8" s="91">
-        <f t="shared" si="2"/>
-        <v>169981952</v>
-      </c>
-      <c r="L8" s="79">
-        <v>534400</v>
-      </c>
-      <c r="M8" s="82">
-        <f>L8*22705</f>
-        <v>12133552000</v>
-      </c>
-      <c r="N8" s="71" t="s">
+      <c r="J8" s="96">
+        <f>K8*I8/12</f>
+        <v>1026.6666666666667</v>
+      </c>
+      <c r="K8" s="79">
+        <v>440000</v>
+      </c>
+      <c r="L8" s="82">
+        <f>K8*22705</f>
+        <v>9990200000</v>
+      </c>
+      <c r="M8" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="93"/>
-      <c r="P8" s="93"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="78"/>
+      <c r="O8" s="84">
+        <v>43140</v>
+      </c>
+      <c r="P8" s="84">
+        <v>43505</v>
+      </c>
+      <c r="Q8" s="88">
+        <v>0.105</v>
+      </c>
+      <c r="R8" s="111">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S8" s="78">
+        <v>27900</v>
+      </c>
+      <c r="T8" s="78">
+        <f t="shared" ca="1" si="2"/>
+        <v>25550</v>
+      </c>
+      <c r="U8" s="79">
+        <v>2350</v>
+      </c>
       <c r="V8" s="78">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W8" s="79"/>
-      <c r="X8" s="78">
+        <v>220.5</v>
+      </c>
+      <c r="W8" s="78">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="78">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="71"/>
-    </row>
-    <row r="9" spans="1:26" ht="20.25" hidden="1" customHeight="1">
-      <c r="A9" s="74">
-        <v>5</v>
-      </c>
-      <c r="B9" s="85">
-        <v>43061</v>
-      </c>
-      <c r="C9" s="85">
-        <v>43242</v>
-      </c>
-      <c r="D9" s="88">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="E9" s="90">
-        <v>353494006</v>
-      </c>
-      <c r="F9" s="82">
-        <v>8390000000</v>
-      </c>
+        <v>23200</v>
+      </c>
+      <c r="X8" s="71"/>
+    </row>
+    <row r="9" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="85">
-        <v>43066</v>
+        <v>43055</v>
       </c>
       <c r="H9" s="85">
-        <v>43217</v>
+        <v>43206</v>
       </c>
       <c r="I9" s="88">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J9" s="98">
-        <f t="shared" si="1"/>
-        <v>5157.6000000000004</v>
-      </c>
-      <c r="K9" s="91">
-        <f t="shared" si="2"/>
-        <v>117180672.00000001</v>
-      </c>
-      <c r="L9" s="79">
-        <v>368400</v>
-      </c>
-      <c r="M9" s="82">
-        <f>L9*22719</f>
-        <v>8369679600</v>
-      </c>
-      <c r="N9" s="71" t="s">
+      <c r="J9" s="96">
+        <f>K9*I9/12</f>
+        <v>206.26666666666668</v>
+      </c>
+      <c r="K9" s="79">
+        <f>534400-446000</f>
+        <v>88400</v>
+      </c>
+      <c r="L9" s="82">
+        <f>K9*22705</f>
+        <v>2007122000</v>
+      </c>
+      <c r="M9" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="88"/>
-      <c r="U9" s="78"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78">
+        <f t="shared" ref="T9:T11" ca="1" si="5">S9-(MONTH(TODAY())-MONTH(O9)-1)*U9</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="79"/>
       <c r="V9" s="78">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="W9" s="79"/>
-      <c r="X9" s="78">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="78">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="71"/>
-    </row>
-    <row r="10" spans="1:26" ht="20.25" hidden="1" customHeight="1">
+      <c r="W9" s="78">
+        <f t="shared" ref="W9:W11" ca="1" si="6">S9-(MONTH(TODAY())-MONTH(O9))*U9</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="71"/>
+    </row>
+    <row r="10" spans="1:24" ht="20.25" customHeight="1">
       <c r="A10" s="74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="85">
-        <v>43068</v>
+        <v>43061</v>
       </c>
       <c r="C10" s="85">
-        <v>43249</v>
+        <v>43242</v>
       </c>
       <c r="D10" s="88">
         <v>8.3799999999999999E-2</v>
       </c>
       <c r="E10" s="90">
-        <v>442394167</v>
+        <v>353494006</v>
       </c>
       <c r="F10" s="82">
-        <v>10500000000</v>
+        <v>8390000000</v>
       </c>
       <c r="G10" s="85">
-        <v>43069</v>
+        <v>43066</v>
       </c>
       <c r="H10" s="85">
-        <v>43220</v>
+        <v>43217</v>
       </c>
       <c r="I10" s="88">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J10" s="98">
-        <f t="shared" si="1"/>
-        <v>6416.2</v>
-      </c>
-      <c r="K10" s="91">
-        <f t="shared" si="2"/>
-        <v>145776064</v>
-      </c>
-      <c r="L10" s="79">
-        <v>458300</v>
-      </c>
-      <c r="M10" s="82">
-        <f>L10*22714</f>
-        <v>10409826200</v>
-      </c>
-      <c r="N10" s="71" t="s">
+      <c r="J10" s="96">
+        <f>K10*I10/12</f>
+        <v>859.6</v>
+      </c>
+      <c r="K10" s="79">
+        <v>368400</v>
+      </c>
+      <c r="L10" s="82">
+        <f>K10*22719</f>
+        <v>8369679600</v>
+      </c>
+      <c r="M10" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="88"/>
-      <c r="U10" s="78"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="79"/>
       <c r="V10" s="78">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="78">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="78">
+      <c r="W10" s="78">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="71"/>
+    </row>
+    <row r="11" spans="1:24" ht="20.25" customHeight="1">
+      <c r="A11" s="74">
+        <v>6</v>
+      </c>
+      <c r="B11" s="85">
+        <v>43068</v>
+      </c>
+      <c r="C11" s="85">
+        <v>43249</v>
+      </c>
+      <c r="D11" s="88">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="E11" s="90">
+        <v>442394167</v>
+      </c>
+      <c r="F11" s="82">
+        <v>10500000000</v>
+      </c>
+      <c r="G11" s="85">
+        <v>43069</v>
+      </c>
+      <c r="H11" s="85">
+        <v>43220</v>
+      </c>
+      <c r="I11" s="88">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J11" s="96">
+        <f>K11*I11/12</f>
+        <v>1069.3666666666666</v>
+      </c>
+      <c r="K11" s="79">
+        <v>458300</v>
+      </c>
+      <c r="L11" s="82">
+        <f>K11*22714</f>
+        <v>10409826200</v>
+      </c>
+      <c r="M11" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="84"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="71"/>
-    </row>
-    <row r="11" spans="1:26" ht="20.25" hidden="1" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="80"/>
       <c r="V11" s="78">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
-      <c r="W11" s="80"/>
-      <c r="X11" s="78">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="78">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="77"/>
-    </row>
-    <row r="12" spans="1:26" s="104" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="A12" s="133" t="s">
+      <c r="W11" s="78">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="77"/>
+    </row>
+    <row r="12" spans="1:24" s="100" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A12" s="76"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="101">
-        <f>SUM(E5:E11)</f>
+      <c r="P12" s="134"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="109"/>
+      <c r="S12" s="101">
+        <f>SUM(S5:S11)</f>
+        <v>194630</v>
+      </c>
+      <c r="T12" s="101">
+        <f t="shared" ref="T12:W12" ca="1" si="7">SUM(T5:T11)</f>
+        <v>101540</v>
+      </c>
+      <c r="U12" s="101">
+        <f t="shared" si="7"/>
+        <v>16290</v>
+      </c>
+      <c r="V12" s="101">
+        <f t="shared" ca="1" si="7"/>
+        <v>821.94082191780831</v>
+      </c>
+      <c r="W12" s="101">
+        <f t="shared" ca="1" si="7"/>
+        <v>85250</v>
+      </c>
+      <c r="X12" s="99"/>
+    </row>
+    <row r="13" spans="1:24" s="100" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A13" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="121"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="97">
+        <f>SUM(E5:E12)</f>
         <v>2578785740</v>
       </c>
-      <c r="F12" s="101">
-        <f>SUM(F5:F11)</f>
+      <c r="F13" s="97">
+        <f>SUM(F5:F12)</f>
         <v>60070000000</v>
       </c>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102">
-        <f>SUM(J5:J11)/6</f>
-        <v>6643.4841666666662</v>
-      </c>
-      <c r="K12" s="101">
-        <f t="shared" ref="K12" si="6">SUM(K5:K11)</f>
-        <v>905639761.60000002</v>
-      </c>
-      <c r="L12" s="102">
-        <f>SUM(L5:L11)</f>
-        <v>2635010</v>
-      </c>
-      <c r="M12" s="101">
-        <f>SUM(M5:M11)</f>
-        <v>59865200930</v>
-      </c>
-      <c r="N12" s="103"/>
-      <c r="O12" s="94">
-        <f>SUM(O5:O11)</f>
-        <v>721360</v>
-      </c>
-      <c r="P12" s="94">
-        <f t="shared" ref="P12:Q12" si="7">SUM(P5:P11)</f>
-        <v>464200</v>
-      </c>
-      <c r="Q12" s="94">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="S12" s="135"/>
-      <c r="T12" s="134"/>
-      <c r="U12" s="107">
-        <f>SUM(U5:U11)</f>
-        <v>166730</v>
-      </c>
-      <c r="V12" s="107">
-        <f t="shared" ref="V12:Y12" ca="1" si="8">SUM(V5:V11)</f>
-        <v>257210</v>
-      </c>
-      <c r="W12" s="107">
-        <f t="shared" si="8"/>
-        <v>13940</v>
-      </c>
-      <c r="X12" s="107">
-        <f t="shared" ca="1" si="8"/>
-        <v>2026.4687671232878</v>
-      </c>
-      <c r="Y12" s="107">
-        <f t="shared" ca="1" si="8"/>
-        <v>243270</v>
-      </c>
-      <c r="Z12" s="103"/>
-    </row>
-    <row r="13" spans="1:26" s="104" customFormat="1" ht="20.25" hidden="1" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="L13" s="110">
-        <f>L12-L18</f>
-        <v>1913650</v>
-      </c>
-      <c r="M13" s="106"/>
-      <c r="U13" s="104" t="s">
-        <v>74</v>
-      </c>
-      <c r="V13" s="108">
-        <f>3000000000/22700</f>
-        <v>132158.59030837004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="20.25" hidden="1" customHeight="1">
-      <c r="A14" s="92" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="75" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A15" s="127" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="130" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="130"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="130"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="130"/>
-      <c r="K15" s="130"/>
-      <c r="L15" s="130"/>
-      <c r="M15" s="130"/>
-      <c r="N15" s="130" t="s">
-        <v>51</v>
-      </c>
-      <c r="W15" s="112">
-        <f ca="1">J12+W12+X12</f>
-        <v>22609.952933789951</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="75" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A16" s="128"/>
-      <c r="B16" s="125" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="125" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="125" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="125" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="132"/>
-      <c r="L16" s="125" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="125" t="s">
-        <v>13</v>
-      </c>
-      <c r="N16" s="130"/>
-    </row>
-    <row r="17" spans="1:17" s="97" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="95" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="95" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="126"/>
-      <c r="M17" s="126"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-    </row>
-    <row r="18" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A18" s="73">
-        <v>1</v>
-      </c>
-      <c r="B18" s="84">
-        <v>42968</v>
-      </c>
-      <c r="C18" s="84">
-        <v>43157</v>
-      </c>
-      <c r="D18" s="87">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="E18" s="91">
-        <f>F18*D18/2</f>
-        <v>430062500</v>
-      </c>
-      <c r="F18" s="81">
-        <v>9830000000</v>
-      </c>
-      <c r="G18" s="84">
-        <v>43076</v>
-      </c>
-      <c r="H18" s="84">
-        <v>43227</v>
-      </c>
-      <c r="I18" s="87">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J18" s="98">
-        <f>L18*I18/12</f>
-        <v>1683.1733333333334</v>
-      </c>
-      <c r="K18" s="91">
-        <f>J18*22720</f>
-        <v>38241698.133333333</v>
-      </c>
-      <c r="L18" s="78">
-        <v>721360</v>
-      </c>
-      <c r="M18" s="81">
-        <f>L18*22728</f>
-        <v>16395070080</v>
-      </c>
-      <c r="N18" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="93"/>
-      <c r="P18" s="93"/>
-    </row>
-    <row r="19" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A19" s="74">
-        <v>2</v>
-      </c>
-      <c r="B19" s="85">
-        <v>42978</v>
-      </c>
-      <c r="C19" s="85">
-        <v>43159</v>
-      </c>
-      <c r="D19" s="87">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="E19" s="91">
-        <f t="shared" ref="E19:E20" si="9">F19*D19/2</f>
-        <v>424375000</v>
-      </c>
-      <c r="F19" s="82">
-        <v>9700000000</v>
-      </c>
-      <c r="G19" s="85">
-        <v>43085</v>
-      </c>
-      <c r="H19" s="85">
-        <v>43236</v>
-      </c>
-      <c r="I19" s="88">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J19" s="98">
-        <f t="shared" ref="J19:J23" si="10">L19*I19/12</f>
-        <v>1083.1333333333334</v>
-      </c>
-      <c r="K19" s="91">
-        <f t="shared" ref="K19:K23" si="11">J19*22720</f>
-        <v>24608789.333333336</v>
-      </c>
-      <c r="L19" s="79">
-        <v>464200</v>
-      </c>
-      <c r="M19" s="82">
-        <f>L19*22727</f>
-        <v>10549873400</v>
-      </c>
-      <c r="N19" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-    </row>
-    <row r="20" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A20" s="74">
-        <v>3</v>
-      </c>
-      <c r="B20" s="85">
-        <v>42989</v>
-      </c>
-      <c r="C20" s="85">
-        <v>43171</v>
-      </c>
-      <c r="D20" s="87">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="E20" s="91">
-        <f t="shared" si="9"/>
-        <v>440562500</v>
-      </c>
-      <c r="F20" s="82">
-        <v>10070000000</v>
-      </c>
-      <c r="G20" s="85">
-        <v>43090</v>
-      </c>
-      <c r="H20" s="85">
-        <v>43241</v>
-      </c>
-      <c r="I20" s="88">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J20" s="98">
-        <f t="shared" si="10"/>
-        <v>206.15</v>
-      </c>
-      <c r="K20" s="91">
-        <f t="shared" si="11"/>
-        <v>4683728</v>
-      </c>
-      <c r="L20" s="79">
-        <v>88350</v>
-      </c>
-      <c r="M20" s="82">
-        <f>L20*22726</f>
-        <v>2007842100</v>
-      </c>
-      <c r="N20" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="O20" s="93"/>
-      <c r="P20" s="93"/>
-    </row>
-    <row r="21" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A21" s="74">
-        <v>4</v>
-      </c>
-      <c r="B21" s="85">
-        <v>43053</v>
-      </c>
-      <c r="C21" s="85">
-        <v>43234</v>
-      </c>
-      <c r="D21" s="88">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="E21" s="90">
-        <v>487897567</v>
-      </c>
-      <c r="F21" s="82">
-        <v>11580000000</v>
-      </c>
-      <c r="G21" s="85">
-        <v>43055</v>
-      </c>
-      <c r="H21" s="85">
-        <v>43206</v>
-      </c>
-      <c r="I21" s="88">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J21" s="98">
-        <f t="shared" si="10"/>
-        <v>1246.9333333333334</v>
-      </c>
-      <c r="K21" s="91">
-        <f t="shared" si="11"/>
-        <v>28330325.333333336</v>
-      </c>
-      <c r="L21" s="79">
-        <v>534400</v>
-      </c>
-      <c r="M21" s="82">
-        <f>L21*22705</f>
-        <v>12133552000</v>
-      </c>
-      <c r="N21" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-    </row>
-    <row r="22" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A22" s="74">
-        <v>5</v>
-      </c>
-      <c r="B22" s="85">
-        <v>43061</v>
-      </c>
-      <c r="C22" s="85">
-        <v>43242</v>
-      </c>
-      <c r="D22" s="88">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="E22" s="90">
-        <v>353494006</v>
-      </c>
-      <c r="F22" s="82">
-        <v>8390000000</v>
-      </c>
-      <c r="G22" s="85">
-        <v>43066</v>
-      </c>
-      <c r="H22" s="85">
-        <v>43217</v>
-      </c>
-      <c r="I22" s="88">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J22" s="98">
-        <f t="shared" si="10"/>
-        <v>859.6</v>
-      </c>
-      <c r="K22" s="91">
-        <f t="shared" si="11"/>
-        <v>19530112</v>
-      </c>
-      <c r="L22" s="79">
-        <v>368400</v>
-      </c>
-      <c r="M22" s="82">
-        <f>L22*22719</f>
-        <v>8369679600</v>
-      </c>
-      <c r="N22" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-    </row>
-    <row r="23" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A23" s="74">
-        <v>6</v>
-      </c>
-      <c r="B23" s="85">
-        <v>43068</v>
-      </c>
-      <c r="C23" s="85">
-        <v>43249</v>
-      </c>
-      <c r="D23" s="88">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="E23" s="90">
-        <v>442394167</v>
-      </c>
-      <c r="F23" s="82">
-        <v>10500000000</v>
-      </c>
-      <c r="G23" s="85">
-        <v>43069</v>
-      </c>
-      <c r="H23" s="85">
-        <v>43220</v>
-      </c>
-      <c r="I23" s="88">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J23" s="98">
-        <f t="shared" si="10"/>
-        <v>1069.3666666666666</v>
-      </c>
-      <c r="K23" s="91">
-        <f t="shared" si="11"/>
-        <v>24296010.666666664</v>
-      </c>
-      <c r="L23" s="79">
-        <v>458300</v>
-      </c>
-      <c r="M23" s="82">
-        <f>L23*22714</f>
-        <v>10409826200</v>
-      </c>
-      <c r="N23" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="93"/>
-      <c r="P23" s="93"/>
-    </row>
-    <row r="24" spans="1:17" ht="20.25" customHeight="1">
-      <c r="A24" s="76"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-    </row>
-    <row r="25" spans="1:17" s="104" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A25" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="134"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101">
-        <f>SUM(E18:E24)</f>
-        <v>2578785740</v>
-      </c>
-      <c r="F25" s="101">
-        <f>SUM(F18:F24)</f>
-        <v>60070000000</v>
-      </c>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="102">
-        <f t="shared" ref="J25:K25" si="12">SUM(J18:J24)</f>
-        <v>6148.3566666666675</v>
-      </c>
-      <c r="K25" s="101">
-        <f t="shared" si="12"/>
-        <v>139690663.46666667</v>
-      </c>
-      <c r="L25" s="102">
-        <f>SUM(L18:L24)</f>
-        <v>2635010</v>
-      </c>
-      <c r="M25" s="101">
-        <f>SUM(M18:M24)</f>
-        <v>59865843380</v>
-      </c>
-      <c r="N25" s="103"/>
-      <c r="O25" s="94">
-        <f>SUM(O18:O24)</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="94">
-        <f t="shared" ref="P25:Q25" si="13">SUM(P18:P24)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="94">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="20.25" customHeight="1">
-      <c r="L27" s="111">
-        <f>L25-L20</f>
-        <v>2546660</v>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="98">
+        <f>SUM(J5:J12)</f>
+        <v>6134.3566666666675</v>
+      </c>
+      <c r="K13" s="98">
+        <f>SUM(K5:K12)</f>
+        <v>2629010</v>
+      </c>
+      <c r="L13" s="97">
+        <f>SUM(L5:L12)</f>
+        <v>59729613380</v>
+      </c>
+      <c r="M13" s="99"/>
+      <c r="T13" s="102"/>
+    </row>
+    <row r="15" spans="1:24" s="75" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A15" s="72"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="U15" s="104"/>
+    </row>
+    <row r="16" spans="1:24" s="75" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A16" s="72"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+    </row>
+    <row r="17" spans="1:21" s="95" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A17" s="72"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+    </row>
+    <row r="25" spans="1:21" s="100" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A25" s="72"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="93">
+        <f t="shared" ref="N25" si="8">SUM(N18:N24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="75" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A28" s="72"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="U28" s="104"/>
+    </row>
+    <row r="29" spans="1:21" s="75" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A29" s="72"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+    </row>
+    <row r="30" spans="1:21" s="95" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A30" s="72"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+    </row>
+    <row r="38" spans="1:14" s="100" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A38" s="72"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="93">
+        <f t="shared" ref="N38" si="9">SUM(N31:N37)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="R2:Y2"/>
+  <mergeCells count="25">
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:W3"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="N15:N17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NH Q11 - Q4 - PV/NH - 2018.xlsx
+++ b/NH Q11 - Q4 - PV/NH - 2018.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="2685" windowWidth="21840" windowHeight="7395"/>
+    <workbookView xWindow="480" yWindow="2805" windowWidth="21840" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="PVCOMBANK" sheetId="30" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <definedName name="_Fill" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PVCOMBANK!$A$3:$S$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'VPBANK - 2018'!$A$16:$M$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'VPBANK - 2018'!$A$16:$M$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'VPBANK - TV'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="73">
   <si>
     <t>USD</t>
   </si>
@@ -757,7 +757,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1047,6 +1047,12 @@
     <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,12 +1080,30 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1089,15 +1113,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,15 +1120,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1472,7 +1478,7 @@
       <selection activeCell="B2" sqref="B2:B3"/>
       <selection pane="topRight" activeCell="B2" sqref="B2:B3"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
-      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1"/>
@@ -1521,47 +1527,47 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108" t="s">
+      <c r="D2" s="109"/>
+      <c r="E2" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109" t="s">
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="110" t="s">
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="110"/>
-      <c r="M2" s="103" t="s">
+      <c r="L2" s="112"/>
+      <c r="M2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="104" t="s">
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="105" t="s">
+      <c r="S2" s="107" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="12" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
       <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
@@ -1607,8 +1613,8 @@
       <c r="Q3" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="104"/>
-      <c r="S3" s="105"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="107"/>
     </row>
     <row r="4" spans="1:20" s="21" customFormat="1" ht="17.25" customHeight="1">
       <c r="A4" s="31">
@@ -2296,10 +2302,10 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" s="39" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="106"/>
+      <c r="B19" s="108"/>
       <c r="C19" s="36"/>
       <c r="D19" s="36"/>
       <c r="E19" s="28">
@@ -2412,39 +2418,38 @@
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="59" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="57" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="57" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="57" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="57" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" style="57" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="57" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="57" customWidth="1"/>
-    <col min="11" max="11" width="14" style="57" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="57" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" style="57" customWidth="1"/>
-    <col min="14" max="14" width="3.28515625" style="57" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" style="57" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="57" customWidth="1"/>
-    <col min="18" max="18" width="7" style="57" customWidth="1"/>
-    <col min="19" max="19" width="11" style="57" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="57" customWidth="1"/>
-    <col min="21" max="21" width="10" style="57" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" style="57" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" style="57" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" style="57" customWidth="1"/>
-    <col min="25" max="16384" width="17.140625" style="57"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" customWidth="1"/>
+    <col min="15" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.25" customHeight="1">
+    <row r="1" spans="1:24" s="57" customFormat="1" ht="20.25" customHeight="1">
       <c r="A1" s="79" t="s">
         <v>53</v>
       </c>
@@ -2456,120 +2461,120 @@
       </c>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117" t="s">
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="114" t="s">
+      <c r="O2" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="117" t="s">
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="124"/>
+      <c r="X2" s="118" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="62" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="118" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="118" t="s">
+      <c r="G3" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="118" t="s">
+      <c r="H3" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="123" t="s">
+      <c r="J3" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="118" t="s">
+      <c r="K3" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="118" t="s">
+      <c r="L3" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="117"/>
-      <c r="O3" s="118" t="s">
+      <c r="M3" s="118"/>
+      <c r="O3" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="118" t="s">
+      <c r="P3" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="118" t="s">
+      <c r="Q3" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="118" t="s">
+      <c r="R3" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="118" t="s">
+      <c r="S3" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="120" t="s">
+      <c r="T3" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="117"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="127"/>
+      <c r="X3" s="118"/>
     </row>
     <row r="4" spans="1:24" s="82" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="117"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="119"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="118"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="120"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
       <c r="T4" s="81" t="s">
         <v>41</v>
       </c>
@@ -2582,9 +2587,9 @@
       <c r="W4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="117"/>
-    </row>
-    <row r="5" spans="1:24" ht="20.25" customHeight="1">
+      <c r="X4" s="118"/>
+    </row>
+    <row r="5" spans="1:24" s="57" customFormat="1" ht="20.25" customHeight="1">
       <c r="A5" s="60">
         <v>1</v>
       </c>
@@ -2638,29 +2643,29 @@
       </c>
       <c r="R5" s="98">
         <f ca="1">DATEDIF(O5,TODAY(),"M")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S5" s="65">
         <v>44000</v>
       </c>
       <c r="T5" s="65">
         <f ca="1">S5-U5*R5</f>
-        <v>7000</v>
+        <v>3300</v>
       </c>
       <c r="U5" s="65">
         <v>3700</v>
       </c>
       <c r="V5" s="65">
         <f ca="1">T5*Q5/365*30</f>
-        <v>52.93150684931507</v>
+        <v>24.953424657534249</v>
       </c>
       <c r="W5" s="65">
         <f ca="1">T5-U5</f>
-        <v>3300</v>
+        <v>-400</v>
       </c>
       <c r="X5" s="58"/>
     </row>
-    <row r="6" spans="1:24" ht="20.25" customHeight="1">
+    <row r="6" spans="1:24" s="57" customFormat="1" ht="20.25" customHeight="1">
       <c r="A6" s="61">
         <v>2</v>
       </c>
@@ -2736,7 +2741,7 @@
       </c>
       <c r="X6" s="58"/>
     </row>
-    <row r="7" spans="1:24" ht="20.25" customHeight="1">
+    <row r="7" spans="1:24" s="57" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="61">
         <v>3</v>
       </c>
@@ -2812,7 +2817,7 @@
       </c>
       <c r="X7" s="58"/>
     </row>
-    <row r="8" spans="1:24" ht="20.25" customHeight="1">
+    <row r="8" spans="1:24" s="57" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="61">
         <v>4</v>
       </c>
@@ -2887,7 +2892,7 @@
       </c>
       <c r="X8" s="58"/>
     </row>
-    <row r="9" spans="1:24" ht="20.25" customHeight="1">
+    <row r="9" spans="1:24" s="57" customFormat="1" ht="20.25" customHeight="1">
       <c r="A9" s="61"/>
       <c r="B9" s="72"/>
       <c r="C9" s="72"/>
@@ -2937,7 +2942,7 @@
       </c>
       <c r="X9" s="58"/>
     </row>
-    <row r="10" spans="1:24" ht="20.25" customHeight="1">
+    <row r="10" spans="1:24" s="57" customFormat="1" ht="20.25" customHeight="1">
       <c r="A10" s="61">
         <v>5</v>
       </c>
@@ -3000,7 +3005,7 @@
       </c>
       <c r="X10" s="58"/>
     </row>
-    <row r="11" spans="1:24" ht="20.25" customHeight="1">
+    <row r="11" spans="1:24" s="57" customFormat="1" ht="20.25" customHeight="1">
       <c r="A11" s="61">
         <v>6</v>
       </c>
@@ -3077,11 +3082,11 @@
       <c r="L12" s="70"/>
       <c r="M12" s="64"/>
       <c r="N12" s="80"/>
-      <c r="O12" s="111" t="s">
+      <c r="O12" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="113"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="114"/>
       <c r="R12" s="96"/>
       <c r="S12" s="88">
         <f>SUM(S5:S11)</f>
@@ -3089,7 +3094,7 @@
       </c>
       <c r="T12" s="88">
         <f t="shared" ref="T12:W12" ca="1" si="8">SUM(T5:T11)</f>
-        <v>80900</v>
+        <v>77200</v>
       </c>
       <c r="U12" s="88">
         <f t="shared" si="8"/>
@@ -3097,19 +3102,19 @@
       </c>
       <c r="V12" s="88">
         <f t="shared" ca="1" si="8"/>
-        <v>655.81643835616433</v>
+        <v>627.83835616438353</v>
       </c>
       <c r="W12" s="88">
         <f t="shared" ca="1" si="8"/>
-        <v>64610</v>
+        <v>60910</v>
       </c>
       <c r="X12" s="86"/>
     </row>
     <row r="13" spans="1:24" s="87" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="113"/>
+      <c r="B13" s="114"/>
       <c r="C13" s="96"/>
       <c r="D13" s="96"/>
       <c r="E13" s="84">
@@ -3137,6 +3142,9 @@
       </c>
       <c r="M13" s="86"/>
       <c r="T13" s="89"/>
+    </row>
+    <row r="14" spans="1:24" s="57" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A14" s="59"/>
     </row>
     <row r="15" spans="1:24" s="62" customFormat="1" ht="20.25" customHeight="1">
       <c r="A15" s="59"/>
@@ -3186,120 +3194,120 @@
       <c r="X16" s="57"/>
     </row>
     <row r="17" spans="1:24" s="82" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117" t="s">
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117" t="s">
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="118"/>
+      <c r="K17" s="118"/>
+      <c r="L17" s="118"/>
+      <c r="M17" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="114" t="s">
+      <c r="O17" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="115"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="117" t="s">
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="118" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="21.75" customHeight="1">
-      <c r="A18" s="124"/>
-      <c r="B18" s="118" t="s">
+    <row r="18" spans="1:24" s="57" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A18" s="116"/>
+      <c r="B18" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E18" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="118" t="s">
+      <c r="G18" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="118" t="s">
+      <c r="H18" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="118" t="s">
+      <c r="I18" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="123" t="s">
+      <c r="J18" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="118" t="s">
+      <c r="K18" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="L18" s="118" t="s">
+      <c r="L18" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="117"/>
-      <c r="O18" s="118" t="s">
+      <c r="M18" s="118"/>
+      <c r="O18" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="118" t="s">
+      <c r="P18" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="118" t="s">
+      <c r="Q18" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="R18" s="118" t="s">
+      <c r="R18" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="S18" s="118" t="s">
+      <c r="S18" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="T18" s="120" t="s">
+      <c r="T18" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="U18" s="121"/>
-      <c r="V18" s="121"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="117"/>
-    </row>
-    <row r="19" spans="1:24" ht="21.75" customHeight="1">
-      <c r="A19" s="125"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="117"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
+      <c r="U18" s="126"/>
+      <c r="V18" s="126"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="118"/>
+    </row>
+    <row r="19" spans="1:24" s="57" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A19" s="117"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="118"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
       <c r="T19" s="81" t="s">
         <v>41</v>
       </c>
@@ -3312,9 +3320,9 @@
       <c r="W19" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="X19" s="117"/>
-    </row>
-    <row r="20" spans="1:24" ht="21.75" customHeight="1">
+      <c r="X19" s="118"/>
+    </row>
+    <row r="20" spans="1:24" s="57" customFormat="1" ht="21.75" customHeight="1">
       <c r="A20" s="60">
         <v>1</v>
       </c>
@@ -3368,31 +3376,31 @@
       </c>
       <c r="R20" s="98">
         <f ca="1">DATEDIF(O20,TODAY(),"M")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S20" s="65">
         <v>44000</v>
       </c>
       <c r="T20" s="65">
         <f ca="1">S20-U20*R20</f>
-        <v>7000</v>
+        <v>3300</v>
       </c>
       <c r="U20" s="65">
         <v>3700</v>
       </c>
       <c r="V20" s="65">
         <f ca="1">T20*Q20/365*30</f>
-        <v>52.93150684931507</v>
+        <v>24.953424657534249</v>
       </c>
       <c r="W20" s="65">
         <f ca="1">T20-U20</f>
-        <v>3300</v>
+        <v>-400</v>
       </c>
       <c r="X20" s="58"/>
     </row>
-    <row r="21" spans="1:24" ht="21.75" customHeight="1">
+    <row r="21" spans="1:24" s="57" customFormat="1" ht="21.75" customHeight="1">
       <c r="A21" s="60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
@@ -3419,9 +3427,7 @@
         <f>K21*22728</f>
         <v>6886584000</v>
       </c>
-      <c r="M21" s="58" t="s">
-        <v>33</v>
-      </c>
+      <c r="M21" s="58"/>
       <c r="O21" s="71">
         <v>43007</v>
       </c>
@@ -3432,14 +3438,14 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="R21" s="98">
-        <f t="shared" ref="R21:R23" ca="1" si="10">DATEDIF(O21,TODAY(),"M")</f>
+        <f t="shared" ref="R21:R24" ca="1" si="10">DATEDIF(O21,TODAY(),"M")</f>
         <v>7</v>
       </c>
       <c r="S21" s="65">
         <v>98840</v>
       </c>
       <c r="T21" s="65">
-        <f t="shared" ref="T21:T23" ca="1" si="11">S21-U21*R21</f>
+        <f t="shared" ref="T21:T26" ca="1" si="11">S21-U21*R21</f>
         <v>41160</v>
       </c>
       <c r="U21" s="66">
@@ -3450,14 +3456,14 @@
         <v>328.15232876712327</v>
       </c>
       <c r="W21" s="65">
-        <f t="shared" ref="W21:W23" ca="1" si="13">T21-U21</f>
+        <f t="shared" ref="W21:W26" ca="1" si="13">T21-U21</f>
         <v>32920</v>
       </c>
       <c r="X21" s="58"/>
     </row>
-    <row r="22" spans="1:24" ht="21.75" customHeight="1">
+    <row r="22" spans="1:24" s="57" customFormat="1" ht="21.75" customHeight="1">
       <c r="A22" s="60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22" s="71"/>
       <c r="C22" s="71"/>
@@ -3474,21 +3480,20 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="J22" s="83">
-        <f t="shared" ref="J22" si="14">K22*I22/12</f>
-        <v>332.26666666666671</v>
+        <f t="shared" ref="J22:J27" si="14">K22*I22/12</f>
+        <v>294.65748666666667</v>
       </c>
       <c r="K22" s="65">
-        <v>142400</v>
+        <f>142400-16118.22</f>
+        <v>126281.78</v>
       </c>
       <c r="L22" s="68">
         <f>K22*22728</f>
-        <v>3236467200</v>
-      </c>
-      <c r="M22" s="58" t="s">
-        <v>33</v>
-      </c>
+        <v>2870132295.8400002</v>
+      </c>
+      <c r="M22" s="58"/>
       <c r="O22" s="71">
-        <v>43038</v>
+        <v>43070</v>
       </c>
       <c r="P22" s="71">
         <v>43434</v>
@@ -3497,32 +3502,32 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="R22" s="98">
-        <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <f ca="1">DATEDIF(O22,TODAY(),"M")</f>
+        <v>5</v>
       </c>
       <c r="S22" s="65">
         <v>23890</v>
       </c>
       <c r="T22" s="65">
         <f t="shared" ca="1" si="11"/>
-        <v>11890</v>
+        <v>13890</v>
       </c>
       <c r="U22" s="66">
         <v>2000</v>
       </c>
       <c r="V22" s="65">
         <f t="shared" ca="1" si="12"/>
-        <v>94.794246575342456</v>
+        <v>110.73945205479451</v>
       </c>
       <c r="W22" s="65">
         <f t="shared" ca="1" si="13"/>
-        <v>9890</v>
+        <v>11890</v>
       </c>
       <c r="X22" s="58"/>
     </row>
-    <row r="23" spans="1:24" ht="21.75" customHeight="1">
-      <c r="A23" s="61">
-        <v>2</v>
+    <row r="23" spans="1:24" s="57" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A23" s="60">
+        <v>4</v>
       </c>
       <c r="B23" s="72">
         <v>43159</v>
@@ -3541,24 +3546,24 @@
         <v>9700000000</v>
       </c>
       <c r="G23" s="72">
-        <v>43085</v>
+        <v>43182</v>
       </c>
       <c r="H23" s="72">
-        <v>43236</v>
+        <v>43335</v>
       </c>
       <c r="I23" s="75">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="J23" s="83">
-        <f t="shared" ref="J23:J28" si="16">K23*I23/12</f>
-        <v>1083.1333333333334</v>
+        <f t="shared" si="14"/>
+        <v>1026.6666666666667</v>
       </c>
       <c r="K23" s="66">
-        <v>464200</v>
+        <v>440000</v>
       </c>
       <c r="L23" s="69">
-        <f>K23*22727</f>
-        <v>10549873400</v>
+        <f>K23*22705</f>
+        <v>9990200000</v>
       </c>
       <c r="M23" s="58" t="s">
         <v>33</v>
@@ -3596,15 +3601,15 @@
       </c>
       <c r="X23" s="58"/>
     </row>
-    <row r="24" spans="1:24" ht="21.75" customHeight="1">
-      <c r="A24" s="61">
-        <v>3</v>
+    <row r="24" spans="1:24" s="57" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A24" s="60">
+        <v>5</v>
       </c>
       <c r="B24" s="72">
         <v>43171</v>
       </c>
       <c r="C24" s="72">
-        <v>43324</v>
+        <v>43355</v>
       </c>
       <c r="D24" s="74">
         <v>8.7499999999999994E-2</v>
@@ -3617,139 +3622,153 @@
         <v>10070000000</v>
       </c>
       <c r="G24" s="72">
-        <v>43090</v>
+        <v>43201</v>
       </c>
       <c r="H24" s="72">
-        <v>43241</v>
+        <v>43354</v>
       </c>
       <c r="I24" s="75">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="J24" s="83">
-        <f t="shared" si="16"/>
-        <v>206.15</v>
+        <f t="shared" si="14"/>
+        <v>602</v>
       </c>
       <c r="K24" s="66">
-        <v>88350</v>
+        <v>258000</v>
       </c>
       <c r="L24" s="69">
-        <f>K24*22726</f>
-        <v>2007842100</v>
+        <f>K24*22705</f>
+        <v>5857890000</v>
       </c>
       <c r="M24" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="65"/>
+      <c r="O24" s="71">
+        <v>43236</v>
+      </c>
+      <c r="P24" s="71">
+        <v>43601</v>
+      </c>
+      <c r="Q24" s="75">
+        <v>0.106</v>
+      </c>
+      <c r="R24" s="98">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="65">
+        <v>48300</v>
+      </c>
       <c r="T24" s="65">
-        <f t="shared" ref="T24:T26" ca="1" si="17">S24-(MONTH(TODAY())-MONTH(O24)-1)*U24</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="66"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>48300</v>
+      </c>
+      <c r="U24" s="66">
+        <v>4100</v>
+      </c>
       <c r="V24" s="65">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>420.80547945205484</v>
       </c>
       <c r="W24" s="65">
-        <f t="shared" ref="W24:W26" ca="1" si="18">S24-(MONTH(TODAY())-MONTH(O24))*U24</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>44200</v>
       </c>
       <c r="X24" s="58"/>
     </row>
-    <row r="25" spans="1:24" ht="21.75" customHeight="1">
-      <c r="A25" s="61">
-        <v>4</v>
-      </c>
-      <c r="B25" s="72">
-        <v>43053</v>
-      </c>
-      <c r="C25" s="72">
-        <v>43234</v>
-      </c>
-      <c r="D25" s="75">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="E25" s="77">
-        <v>487897567</v>
-      </c>
-      <c r="F25" s="69">
-        <v>11580000000</v>
-      </c>
+    <row r="25" spans="1:24" s="57" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A25" s="60">
+        <v>6</v>
+      </c>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="72">
-        <v>43182</v>
+        <v>43207</v>
       </c>
       <c r="H25" s="72">
-        <v>43335</v>
+        <v>43390</v>
       </c>
       <c r="I25" s="75">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="J25" s="83">
-        <f t="shared" si="16"/>
-        <v>1026.6666666666667</v>
+        <f t="shared" si="14"/>
+        <v>462.93333333333334</v>
       </c>
       <c r="K25" s="66">
-        <v>440000</v>
+        <f>368400-170000</f>
+        <v>198400</v>
       </c>
       <c r="L25" s="69">
-        <f>K25*22705</f>
-        <v>9990200000</v>
-      </c>
-      <c r="M25" s="58" t="s">
-        <v>34</v>
-      </c>
+        <f>K25*22719</f>
+        <v>4507449600</v>
+      </c>
+      <c r="M25" s="58"/>
       <c r="O25" s="71"/>
       <c r="P25" s="71"/>
       <c r="Q25" s="75"/>
-      <c r="R25" s="74"/>
+      <c r="R25" s="98"/>
       <c r="S25" s="65"/>
       <c r="T25" s="65">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U25" s="66"/>
       <c r="V25" s="65">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W25" s="65">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X25" s="58"/>
     </row>
-    <row r="26" spans="1:24" ht="21.75" customHeight="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="69"/>
+    <row r="26" spans="1:24" s="57" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A26" s="60">
+        <v>7</v>
+      </c>
+      <c r="B26" s="72">
+        <v>43242</v>
+      </c>
+      <c r="C26" s="72">
+        <v>43426</v>
+      </c>
+      <c r="D26" s="75">
+        <v>0.08</v>
+      </c>
+      <c r="E26" s="77">
+        <v>353494006</v>
+      </c>
+      <c r="F26" s="69">
+        <v>7000000000</v>
+      </c>
       <c r="G26" s="72">
-        <v>43201</v>
+        <v>43208</v>
       </c>
       <c r="H26" s="72">
-        <v>43354</v>
+        <v>43391</v>
       </c>
       <c r="I26" s="75">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="J26" s="83">
-        <f t="shared" si="16"/>
-        <v>602</v>
+        <f t="shared" si="14"/>
+        <v>460.83333333333331</v>
       </c>
       <c r="K26" s="66">
-        <v>258000</v>
+        <v>197500</v>
       </c>
       <c r="L26" s="69">
-        <f>K26*22705</f>
-        <v>5857890000</v>
+        <f>K26*22714</f>
+        <v>4486015000</v>
       </c>
       <c r="M26" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O26" s="71"/>
       <c r="P26" s="71"/>
@@ -3757,260 +3776,210 @@
       <c r="R26" s="97"/>
       <c r="S26" s="65"/>
       <c r="T26" s="65">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U26" s="67"/>
       <c r="V26" s="65">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W26" s="65">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X26" s="64"/>
     </row>
     <row r="27" spans="1:24" s="87" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A27" s="61">
-        <v>5</v>
+      <c r="A27" s="60">
+        <v>8</v>
       </c>
       <c r="B27" s="72">
-        <v>43061</v>
+        <v>43068</v>
       </c>
       <c r="C27" s="72">
-        <v>43242</v>
+        <v>43249</v>
       </c>
       <c r="D27" s="75">
         <v>8.3799999999999999E-2</v>
       </c>
       <c r="E27" s="77">
-        <v>353494006</v>
+        <v>442394167</v>
       </c>
       <c r="F27" s="69">
-        <v>8390000000</v>
+        <v>10500000000</v>
       </c>
       <c r="G27" s="72">
-        <v>43207</v>
-      </c>
-      <c r="H27" s="72"/>
+        <v>43209</v>
+      </c>
+      <c r="H27" s="72">
+        <v>43392</v>
+      </c>
       <c r="I27" s="75">
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="J27" s="83">
-        <f t="shared" si="16"/>
-        <v>462.93333333333334</v>
+        <f t="shared" si="14"/>
+        <v>462</v>
       </c>
       <c r="K27" s="66">
-        <f>368400-170000</f>
-        <v>198400</v>
+        <v>198000</v>
       </c>
       <c r="L27" s="69">
-        <f>K27*22719</f>
-        <v>4507449600</v>
-      </c>
-      <c r="M27" s="58" t="s">
-        <v>34</v>
-      </c>
+        <f>K27*22714</f>
+        <v>4497372000</v>
+      </c>
+      <c r="M27" s="58"/>
       <c r="N27" s="80"/>
-      <c r="O27" s="111" t="s">
+      <c r="O27" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="113"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="114"/>
       <c r="R27" s="101"/>
       <c r="S27" s="88">
         <f>SUM(S20:S26)</f>
-        <v>194630</v>
+        <v>242930</v>
       </c>
       <c r="T27" s="88">
-        <f t="shared" ref="T27:W27" ca="1" si="19">SUM(T20:T26)</f>
-        <v>80900</v>
+        <f t="shared" ref="T27:W27" ca="1" si="16">SUM(T20:T26)</f>
+        <v>127500</v>
       </c>
       <c r="U27" s="88">
-        <f t="shared" si="19"/>
-        <v>16290</v>
+        <f t="shared" si="16"/>
+        <v>20390</v>
       </c>
       <c r="V27" s="88">
-        <f t="shared" ca="1" si="19"/>
-        <v>655.81643835616433</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>1064.5890410958905</v>
       </c>
       <c r="W27" s="88">
-        <f t="shared" ca="1" si="19"/>
-        <v>64610</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>107110</v>
       </c>
       <c r="X27" s="86"/>
     </row>
-    <row r="28" spans="1:24" ht="21.75" customHeight="1">
-      <c r="A28" s="61">
-        <v>6</v>
-      </c>
-      <c r="B28" s="72">
-        <v>43068</v>
-      </c>
-      <c r="C28" s="72">
-        <v>43249</v>
-      </c>
-      <c r="D28" s="75">
-        <v>8.3799999999999999E-2</v>
-      </c>
-      <c r="E28" s="77">
-        <v>442394167</v>
-      </c>
-      <c r="F28" s="69">
-        <v>10500000000</v>
-      </c>
-      <c r="G28" s="72">
-        <v>43208</v>
-      </c>
-      <c r="H28" s="72"/>
-      <c r="I28" s="75">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J28" s="83">
-        <f t="shared" si="16"/>
-        <v>460.83333333333331</v>
-      </c>
-      <c r="K28" s="66">
-        <v>197500</v>
-      </c>
-      <c r="L28" s="69">
-        <f>K28*22714</f>
-        <v>4486015000</v>
-      </c>
-      <c r="M28" s="58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" ht="21.75" customHeight="1">
-      <c r="A29" s="61"/>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="72">
-        <v>43209</v>
-      </c>
-      <c r="H29" s="72"/>
-      <c r="I29" s="75">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J29" s="83">
-        <f t="shared" ref="J29" si="20">K29*I29/12</f>
-        <v>462</v>
-      </c>
-      <c r="K29" s="66">
-        <v>198000</v>
-      </c>
-      <c r="L29" s="69">
-        <f>K29*22714</f>
-        <v>4497372000</v>
-      </c>
-      <c r="M29" s="58" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="21.75" customHeight="1">
-      <c r="A30" s="63"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="64"/>
-    </row>
-    <row r="31" spans="1:24" s="62" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A31" s="111" t="s">
+    <row r="28" spans="1:24" s="57" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A28" s="60"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="64"/>
+    </row>
+    <row r="29" spans="1:24" s="57" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A29" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="84">
-        <f>SUM(E20:E30)</f>
-        <v>2578785740</v>
-      </c>
-      <c r="F31" s="84">
-        <f>SUM(F20:F30)</f>
-        <v>60070000000</v>
-      </c>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85">
-        <f>SUM(J20:J30)</f>
-        <v>6133.9833333333336</v>
-      </c>
-      <c r="K31" s="85">
-        <f>SUM(K20:K30)</f>
-        <v>2628850</v>
-      </c>
-      <c r="L31" s="84">
-        <f>SUM(L20:L30)</f>
-        <v>59724485300</v>
-      </c>
-      <c r="M31" s="86"/>
-      <c r="U31" s="91"/>
-    </row>
-    <row r="32" spans="1:24" s="62" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A32" s="59"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-    </row>
-    <row r="33" spans="1:14" s="82" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A33" s="59"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="57"/>
-    </row>
-    <row r="41" spans="1:14" s="87" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A41" s="59"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="80">
-        <f t="shared" ref="N41" si="21">SUM(N34:N40)</f>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="B29" s="114"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="84">
+        <f>SUM(E20:E28)</f>
+        <v>2090888173</v>
+      </c>
+      <c r="F29" s="84">
+        <f>SUM(F20:F28)</f>
+        <v>47100000000</v>
+      </c>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85">
+        <f>SUM(J20:J28)</f>
+        <v>4807.0908200000003</v>
+      </c>
+      <c r="K29" s="85">
+        <f>SUM(K20:K28)</f>
+        <v>2060181.78</v>
+      </c>
+      <c r="L29" s="84">
+        <f>SUM(L20:L28)</f>
+        <v>46800434895.839996</v>
+      </c>
+      <c r="M29" s="86"/>
+    </row>
+    <row r="30" spans="1:24" s="62" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="59"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="U30" s="91"/>
+    </row>
+    <row r="31" spans="1:24" s="62" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="59"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="57"/>
+    </row>
+    <row r="32" spans="1:24" ht="21" customHeight="1"/>
+    <row r="33" ht="21" customHeight="1"/>
+    <row r="34" ht="21" customHeight="1"/>
+    <row r="35" ht="21" customHeight="1"/>
+    <row r="36" ht="21" customHeight="1"/>
+    <row r="37" ht="21" customHeight="1"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="O17:W17"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="O2:W2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="G17:L17"/>
@@ -4026,40 +3995,6 @@
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="O2:W2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="O27:Q27"/>
-    <mergeCell ref="O17:W17"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:W18"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4074,7 +4009,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="20.25" customHeight="1"/>
@@ -4102,96 +4037,96 @@
       <c r="B1" s="79"/>
     </row>
     <row r="2" spans="1:17" s="62" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="117" t="s">
+      <c r="J2" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="114" t="s">
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="117" t="s">
+      <c r="P2" s="124"/>
+      <c r="Q2" s="118" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="62" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="117" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="117" t="s">
+      <c r="G3" s="118"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="126" t="s">
+      <c r="K3" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="126" t="s">
+      <c r="L3" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="126" t="s">
+      <c r="M3" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="126" t="s">
+      <c r="N3" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="126" t="s">
+      <c r="O3" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="126" t="s">
+      <c r="P3" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="117"/>
+      <c r="Q3" s="118"/>
     </row>
     <row r="4" spans="1:17" s="82" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A4" s="125"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="117"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="117"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="118"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="128"/>
+      <c r="O4" s="128"/>
+      <c r="P4" s="128"/>
+      <c r="Q4" s="118"/>
     </row>
     <row r="5" spans="1:17" ht="20.25" customHeight="1">
       <c r="A5" s="60">
@@ -4265,10 +4200,14 @@
       <c r="J6" s="60"/>
       <c r="K6" s="78"/>
       <c r="L6" s="74"/>
-      <c r="M6" s="60"/>
+      <c r="M6" s="72"/>
       <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="69"/>
+      <c r="O6" s="72">
+        <v>43248</v>
+      </c>
+      <c r="P6" s="69">
+        <v>3000000000</v>
+      </c>
       <c r="Q6" s="58"/>
     </row>
     <row r="7" spans="1:17" ht="20.25" customHeight="1">
@@ -4287,7 +4226,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="78"/>
       <c r="L7" s="74"/>
-      <c r="M7" s="60"/>
+      <c r="M7" s="72"/>
       <c r="N7" s="72"/>
       <c r="O7" s="72"/>
       <c r="P7" s="69"/>
@@ -4309,7 +4248,7 @@
       <c r="J8" s="61"/>
       <c r="K8" s="78"/>
       <c r="L8" s="74"/>
-      <c r="M8" s="61"/>
+      <c r="M8" s="72"/>
       <c r="N8" s="72"/>
       <c r="O8" s="72"/>
       <c r="P8" s="69"/>
@@ -4331,7 +4270,7 @@
       <c r="J9" s="60"/>
       <c r="K9" s="78"/>
       <c r="L9" s="74"/>
-      <c r="M9" s="60"/>
+      <c r="M9" s="72"/>
       <c r="N9" s="72"/>
       <c r="O9" s="72"/>
       <c r="P9" s="69"/>
@@ -4353,7 +4292,7 @@
       <c r="J10" s="61"/>
       <c r="K10" s="78"/>
       <c r="L10" s="74"/>
-      <c r="M10" s="61"/>
+      <c r="M10" s="72"/>
       <c r="N10" s="72"/>
       <c r="O10" s="72"/>
       <c r="P10" s="69"/>
@@ -4375,7 +4314,7 @@
       <c r="J11" s="60"/>
       <c r="K11" s="78"/>
       <c r="L11" s="74"/>
-      <c r="M11" s="60"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="72"/>
       <c r="O11" s="72"/>
       <c r="P11" s="69"/>
@@ -4393,18 +4332,18 @@
       <c r="J12" s="63"/>
       <c r="K12" s="78"/>
       <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
+      <c r="M12" s="72"/>
       <c r="N12" s="73"/>
       <c r="O12" s="73"/>
       <c r="P12" s="70"/>
       <c r="Q12" s="64"/>
     </row>
     <row r="13" spans="1:17" s="87" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="101"/>
       <c r="E13" s="101"/>
       <c r="F13" s="85">
@@ -4412,10 +4351,10 @@
         <v>213300</v>
       </c>
       <c r="G13" s="86"/>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="112"/>
+      <c r="J13" s="121"/>
       <c r="K13" s="84">
         <f t="shared" ref="K13" si="0">SUM(K5:K12)</f>
         <v>16832700000</v>
@@ -4426,7 +4365,7 @@
       <c r="O13" s="84"/>
       <c r="P13" s="84">
         <f>SUM(P5:P12)</f>
-        <v>3000000000</v>
+        <v>6000000000</v>
       </c>
       <c r="Q13" s="86"/>
     </row>
@@ -4436,14 +4375,17 @@
       <c r="C15" s="57"/>
       <c r="D15" s="57"/>
       <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="F15" s="104">
+        <f>F13*E5/12</f>
+        <v>604.35</v>
+      </c>
       <c r="G15" s="57"/>
       <c r="N15" s="62" t="s">
         <v>62</v>
       </c>
       <c r="P15" s="102">
         <f>K13-P13</f>
-        <v>13832700000</v>
+        <v>10832700000</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="87" customFormat="1" ht="20.25" customHeight="1">
@@ -4457,6 +4399,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A13:C13"/>
@@ -4468,16 +4420,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
